--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il10rb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H2">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I2">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J2">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4766862979387</v>
+        <v>18.673966</v>
       </c>
       <c r="N2">
-        <v>18.4766862979387</v>
+        <v>56.02189799999999</v>
       </c>
       <c r="O2">
-        <v>0.0888222312085649</v>
+        <v>0.08731413067222925</v>
       </c>
       <c r="P2">
-        <v>0.0888222312085649</v>
+        <v>0.08832249583235839</v>
       </c>
       <c r="Q2">
-        <v>54.76793047364119</v>
+        <v>21.83728604315733</v>
       </c>
       <c r="R2">
-        <v>54.76793047364119</v>
+        <v>196.535574388416</v>
       </c>
       <c r="S2">
-        <v>0.007067599401937666</v>
+        <v>0.002445355682936362</v>
       </c>
       <c r="T2">
-        <v>0.007067599401937666</v>
+        <v>0.002492440470236554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H3">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I3">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J3">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.84421520046077</v>
+        <v>10.309642</v>
       </c>
       <c r="N3">
-        <v>9.84421520046077</v>
+        <v>30.928926</v>
       </c>
       <c r="O3">
-        <v>0.04732369995910706</v>
+        <v>0.04820494097354054</v>
       </c>
       <c r="P3">
-        <v>0.04732369995910706</v>
+        <v>0.04876164562889892</v>
       </c>
       <c r="Q3">
-        <v>29.17986942964691</v>
+        <v>12.05606786242133</v>
       </c>
       <c r="R3">
-        <v>29.17986942964691</v>
+        <v>108.504610761792</v>
       </c>
       <c r="S3">
-        <v>0.003765554512395665</v>
+        <v>0.001350047528936242</v>
       </c>
       <c r="T3">
-        <v>0.003765554512395665</v>
+        <v>0.001376042397980725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H4">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I4">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J4">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.9739708041881</v>
+        <v>76.40418233333334</v>
       </c>
       <c r="N4">
-        <v>71.9739708041881</v>
+        <v>229.212547</v>
       </c>
       <c r="O4">
-        <v>0.3459975762256298</v>
+        <v>0.3572441312229817</v>
       </c>
       <c r="P4">
-        <v>0.3459975762256298</v>
+        <v>0.3613698384001869</v>
       </c>
       <c r="Q4">
-        <v>213.3426614140988</v>
+        <v>89.34684707611379</v>
       </c>
       <c r="R4">
-        <v>213.3426614140988</v>
+        <v>804.121623685024</v>
       </c>
       <c r="S4">
-        <v>0.02753108348586882</v>
+        <v>0.01000512700242266</v>
       </c>
       <c r="T4">
-        <v>0.02753108348586882</v>
+        <v>0.01019777352828707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H5">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I5">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J5">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.698532001616</v>
+        <v>101.1580683333333</v>
       </c>
       <c r="N5">
-        <v>100.698532001616</v>
+        <v>303.474205</v>
       </c>
       <c r="O5">
-        <v>0.4840840044358198</v>
+        <v>0.4729862310452404</v>
       </c>
       <c r="P5">
-        <v>0.4840840044358198</v>
+        <v>0.4784486096194167</v>
       </c>
       <c r="Q5">
-        <v>298.4869749115949</v>
+        <v>118.2939753541511</v>
       </c>
       <c r="R5">
-        <v>298.4869749115949</v>
+        <v>1064.64577818736</v>
       </c>
       <c r="S5">
-        <v>0.03851864306588464</v>
+        <v>0.01324664815571484</v>
       </c>
       <c r="T5">
-        <v>0.03851864306588464</v>
+        <v>0.01350170946037681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H6">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I6">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J6">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.02530955306597</v>
+        <v>7.325205</v>
       </c>
       <c r="N6">
-        <v>7.02530955306597</v>
+        <v>14.65041</v>
       </c>
       <c r="O6">
-        <v>0.03377248817087838</v>
+        <v>0.03425056608600804</v>
       </c>
       <c r="P6">
-        <v>0.03377248817087838</v>
+        <v>0.02309741051913917</v>
       </c>
       <c r="Q6">
-        <v>20.82417046832956</v>
+        <v>8.566075193120001</v>
       </c>
       <c r="R6">
-        <v>20.82417046832956</v>
+        <v>51.39645115872001</v>
       </c>
       <c r="S6">
-        <v>0.00268728238359577</v>
+        <v>0.0009592355301184472</v>
       </c>
       <c r="T6">
-        <v>0.00268728238359577</v>
+        <v>0.0006518035998987097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4346611508212</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H7">
-        <v>11.4346611508212</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I7">
-        <v>0.3069525892792884</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J7">
-        <v>0.3069525892792884</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4766862979387</v>
+        <v>18.673966</v>
       </c>
       <c r="N7">
-        <v>18.4766862979387</v>
+        <v>56.02189799999999</v>
       </c>
       <c r="O7">
-        <v>0.0888222312085649</v>
+        <v>0.08731413067222925</v>
       </c>
       <c r="P7">
-        <v>0.0888222312085649</v>
+        <v>0.08832249583235839</v>
       </c>
       <c r="Q7">
-        <v>211.27464700695</v>
+        <v>60.15260417782132</v>
       </c>
       <c r="R7">
-        <v>211.27464700695</v>
+        <v>541.3734376003919</v>
       </c>
       <c r="S7">
-        <v>0.02726421385503262</v>
+        <v>0.006735933768461521</v>
       </c>
       <c r="T7">
-        <v>0.02726421385503262</v>
+        <v>0.006865632695684799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4346611508212</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H8">
-        <v>11.4346611508212</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I8">
-        <v>0.3069525892792884</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J8">
-        <v>0.3069525892792884</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.84421520046077</v>
+        <v>10.309642</v>
       </c>
       <c r="N8">
-        <v>9.84421520046077</v>
+        <v>30.928926</v>
       </c>
       <c r="O8">
-        <v>0.04732369995910706</v>
+        <v>0.04820494097354054</v>
       </c>
       <c r="P8">
-        <v>0.04732369995910706</v>
+        <v>0.04876164562889892</v>
       </c>
       <c r="Q8">
-        <v>112.5652651130323</v>
+        <v>33.20943255658933</v>
       </c>
       <c r="R8">
-        <v>112.5652651130323</v>
+        <v>298.8848930093039</v>
       </c>
       <c r="S8">
-        <v>0.01452613223672407</v>
+        <v>0.003718817185837716</v>
       </c>
       <c r="T8">
-        <v>0.01452613223672407</v>
+        <v>0.003790422195049794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4346611508212</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H9">
-        <v>11.4346611508212</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I9">
-        <v>0.3069525892792884</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J9">
-        <v>0.3069525892792884</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.9739708041881</v>
+        <v>76.40418233333334</v>
       </c>
       <c r="N9">
-        <v>71.9739708041881</v>
+        <v>229.212547</v>
       </c>
       <c r="O9">
-        <v>0.3459975762256298</v>
+        <v>0.3572441312229817</v>
       </c>
       <c r="P9">
-        <v>0.3459975762256298</v>
+        <v>0.3613698384001869</v>
       </c>
       <c r="Q9">
-        <v>822.9979678249889</v>
+        <v>246.1132540043764</v>
       </c>
       <c r="R9">
-        <v>822.9979678249889</v>
+        <v>2215.019286039388</v>
       </c>
       <c r="S9">
-        <v>0.106204851906815</v>
+        <v>0.02755994692454679</v>
       </c>
       <c r="T9">
-        <v>0.106204851906815</v>
+        <v>0.02809060765746261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.4346611508212</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H10">
-        <v>11.4346611508212</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I10">
-        <v>0.3069525892792884</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J10">
-        <v>0.3069525892792884</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.698532001616</v>
+        <v>101.1580683333333</v>
       </c>
       <c r="N10">
-        <v>100.698532001616</v>
+        <v>303.474205</v>
       </c>
       <c r="O10">
-        <v>0.4840840044358198</v>
+        <v>0.4729862310452404</v>
       </c>
       <c r="P10">
-        <v>0.4840840044358198</v>
+        <v>0.4784486096194167</v>
       </c>
       <c r="Q10">
-        <v>1151.453591823604</v>
+        <v>325.8505045927578</v>
       </c>
       <c r="R10">
-        <v>1151.453591823604</v>
+        <v>2932.654541334819</v>
       </c>
       <c r="S10">
-        <v>0.1485908385902614</v>
+        <v>0.03648898409897706</v>
       </c>
       <c r="T10">
-        <v>0.1485908385902614</v>
+        <v>0.03719157148415342</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.4346611508212</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H11">
-        <v>11.4346611508212</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I11">
-        <v>0.3069525892792884</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J11">
-        <v>0.3069525892792884</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.02530955306597</v>
+        <v>7.325205</v>
       </c>
       <c r="N11">
-        <v>7.02530955306597</v>
+        <v>14.65041</v>
       </c>
       <c r="O11">
-        <v>0.03377248817087838</v>
+        <v>0.03425056608600804</v>
       </c>
       <c r="P11">
-        <v>0.03377248817087838</v>
+        <v>0.02309741051913917</v>
       </c>
       <c r="Q11">
-        <v>80.33203421893649</v>
+        <v>23.59596011294</v>
       </c>
       <c r="R11">
-        <v>80.33203421893649</v>
+        <v>141.57576067764</v>
       </c>
       <c r="S11">
-        <v>0.01036655269045526</v>
+        <v>0.002642293325392324</v>
       </c>
       <c r="T11">
-        <v>0.01036655269045526</v>
+        <v>0.001795446735867242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.9539643484854</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H12">
-        <v>21.9539643484854</v>
+        <v>42.215075</v>
       </c>
       <c r="I12">
-        <v>0.5893332660083959</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J12">
-        <v>0.5893332660083959</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.4766862979387</v>
+        <v>18.673966</v>
       </c>
       <c r="N12">
-        <v>18.4766862979387</v>
+        <v>56.02189799999999</v>
       </c>
       <c r="O12">
-        <v>0.0888222312085649</v>
+        <v>0.08731413067222925</v>
       </c>
       <c r="P12">
-        <v>0.0888222312085649</v>
+        <v>0.08832249583235839</v>
       </c>
       <c r="Q12">
-        <v>405.6365122630949</v>
+        <v>262.7742917458166</v>
       </c>
       <c r="R12">
-        <v>405.6365122630949</v>
+        <v>2364.968625712349</v>
       </c>
       <c r="S12">
-        <v>0.05234589561229642</v>
+        <v>0.02942566243718552</v>
       </c>
       <c r="T12">
-        <v>0.05234589561229642</v>
+        <v>0.02999224711306319</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.9539643484854</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H13">
-        <v>21.9539643484854</v>
+        <v>42.215075</v>
       </c>
       <c r="I13">
-        <v>0.5893332660083959</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J13">
-        <v>0.5893332660083959</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.84421520046077</v>
+        <v>10.309642</v>
       </c>
       <c r="N13">
-        <v>9.84421520046077</v>
+        <v>30.928926</v>
       </c>
       <c r="O13">
-        <v>0.04732369995910706</v>
+        <v>0.04820494097354054</v>
       </c>
       <c r="P13">
-        <v>0.04732369995910706</v>
+        <v>0.04876164562889892</v>
       </c>
       <c r="Q13">
-        <v>216.1195495497338</v>
+        <v>145.0741034177166</v>
       </c>
       <c r="R13">
-        <v>216.1195495497338</v>
+        <v>1305.66693075945</v>
       </c>
       <c r="S13">
-        <v>0.02788943065650195</v>
+        <v>0.01624550699836501</v>
       </c>
       <c r="T13">
-        <v>0.02788943065650195</v>
+        <v>0.01655831067225972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.9539643484854</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H14">
-        <v>21.9539643484854</v>
+        <v>42.215075</v>
       </c>
       <c r="I14">
-        <v>0.5893332660083959</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J14">
-        <v>0.5893332660083959</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.9739708041881</v>
+        <v>76.40418233333334</v>
       </c>
       <c r="N14">
-        <v>71.9739708041881</v>
+        <v>229.212547</v>
       </c>
       <c r="O14">
-        <v>0.3459975762256298</v>
+        <v>0.3572441312229817</v>
       </c>
       <c r="P14">
-        <v>0.3459975762256298</v>
+        <v>0.3613698384001869</v>
       </c>
       <c r="Q14">
-        <v>1580.113989054075</v>
+        <v>1075.136095838447</v>
       </c>
       <c r="R14">
-        <v>1580.113989054075</v>
+        <v>9676.224862546025</v>
       </c>
       <c r="S14">
-        <v>0.2039078816280393</v>
+        <v>0.1203945470463982</v>
       </c>
       <c r="T14">
-        <v>0.2039078816280393</v>
+        <v>0.122712717641923</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.9539643484854</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H15">
-        <v>21.9539643484854</v>
+        <v>42.215075</v>
       </c>
       <c r="I15">
-        <v>0.5893332660083959</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J15">
-        <v>0.5893332660083959</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>100.698532001616</v>
+        <v>101.1580683333333</v>
       </c>
       <c r="N15">
-        <v>100.698532001616</v>
+        <v>303.474205</v>
       </c>
       <c r="O15">
-        <v>0.4840840044358198</v>
+        <v>0.4729862310452404</v>
       </c>
       <c r="P15">
-        <v>0.4840840044358198</v>
+        <v>0.4784486096194167</v>
       </c>
       <c r="Q15">
-        <v>2210.731981508294</v>
+        <v>1423.465147182264</v>
       </c>
       <c r="R15">
-        <v>2210.731981508294</v>
+        <v>12811.18632464037</v>
       </c>
       <c r="S15">
-        <v>0.2852868073565845</v>
+        <v>0.1594006956837349</v>
       </c>
       <c r="T15">
-        <v>0.2852868073565845</v>
+        <v>0.1624699211154966</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.9539643484854</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H16">
-        <v>21.9539643484854</v>
+        <v>42.215075</v>
       </c>
       <c r="I16">
-        <v>0.5893332660083959</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J16">
-        <v>0.5893332660083959</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.02530955306597</v>
+        <v>7.325205</v>
       </c>
       <c r="N16">
-        <v>7.02530955306597</v>
+        <v>14.65041</v>
       </c>
       <c r="O16">
-        <v>0.03377248817087838</v>
+        <v>0.03425056608600804</v>
       </c>
       <c r="P16">
-        <v>0.03377248817087838</v>
+        <v>0.02309741051913917</v>
       </c>
       <c r="Q16">
-        <v>154.2333954650842</v>
+        <v>103.078026155125</v>
       </c>
       <c r="R16">
-        <v>154.2333954650842</v>
+        <v>618.4681569307501</v>
       </c>
       <c r="S16">
-        <v>0.01990325075497367</v>
+        <v>0.01154275474278916</v>
       </c>
       <c r="T16">
-        <v>0.01990325075497367</v>
+        <v>0.007843338635683001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.899416590943263</v>
+        <v>22.345278</v>
       </c>
       <c r="H17">
-        <v>0.899416590943263</v>
+        <v>67.03583399999999</v>
       </c>
       <c r="I17">
-        <v>0.02414398186263335</v>
+        <v>0.5351569449859956</v>
       </c>
       <c r="J17">
-        <v>0.02414398186263335</v>
+        <v>0.5392338221006618</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.4766862979387</v>
+        <v>18.673966</v>
       </c>
       <c r="N17">
-        <v>18.4766862979387</v>
+        <v>56.02189799999999</v>
       </c>
       <c r="O17">
-        <v>0.0888222312085649</v>
+        <v>0.08731413067222925</v>
       </c>
       <c r="P17">
-        <v>0.0888222312085649</v>
+        <v>0.08832249583235839</v>
       </c>
       <c r="Q17">
-        <v>16.61823820202012</v>
+        <v>417.2749616325478</v>
       </c>
       <c r="R17">
-        <v>16.61823820202012</v>
+        <v>3755.474654692931</v>
       </c>
       <c r="S17">
-        <v>0.002144522339298217</v>
+        <v>0.04672676342465822</v>
       </c>
       <c r="T17">
-        <v>0.002144522339298217</v>
+        <v>0.04762647700515239</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.899416590943263</v>
+        <v>22.345278</v>
       </c>
       <c r="H18">
-        <v>0.899416590943263</v>
+        <v>67.03583399999999</v>
       </c>
       <c r="I18">
-        <v>0.02414398186263335</v>
+        <v>0.5351569449859956</v>
       </c>
       <c r="J18">
-        <v>0.02414398186263335</v>
+        <v>0.5392338221006618</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.84421520046077</v>
+        <v>10.309642</v>
       </c>
       <c r="N18">
-        <v>9.84421520046077</v>
+        <v>30.928926</v>
       </c>
       <c r="O18">
-        <v>0.04732369995910706</v>
+        <v>0.04820494097354054</v>
       </c>
       <c r="P18">
-        <v>0.04732369995910706</v>
+        <v>0.04876164562889892</v>
       </c>
       <c r="Q18">
-        <v>8.854050476110276</v>
+        <v>230.3718165704759</v>
       </c>
       <c r="R18">
-        <v>8.854050476110276</v>
+        <v>2073.346349134284</v>
       </c>
       <c r="S18">
-        <v>0.001142582553485383</v>
+        <v>0.0257972089446302</v>
       </c>
       <c r="T18">
-        <v>0.001142582553485383</v>
+        <v>0.02629392854438919</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.899416590943263</v>
+        <v>22.345278</v>
       </c>
       <c r="H19">
-        <v>0.899416590943263</v>
+        <v>67.03583399999999</v>
       </c>
       <c r="I19">
-        <v>0.02414398186263335</v>
+        <v>0.5351569449859956</v>
       </c>
       <c r="J19">
-        <v>0.02414398186263335</v>
+        <v>0.5392338221006618</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.9739708041881</v>
+        <v>76.40418233333334</v>
       </c>
       <c r="N19">
-        <v>71.9739708041881</v>
+        <v>229.212547</v>
       </c>
       <c r="O19">
-        <v>0.3459975762256298</v>
+        <v>0.3572441312229817</v>
       </c>
       <c r="P19">
-        <v>0.3459975762256298</v>
+        <v>0.3613698384001869</v>
       </c>
       <c r="Q19">
-        <v>64.7345834573528</v>
+        <v>1707.272694601022</v>
       </c>
       <c r="R19">
-        <v>64.7345834573528</v>
+        <v>15365.4542514092</v>
       </c>
       <c r="S19">
-        <v>0.008353759204906705</v>
+        <v>0.191181677879467</v>
       </c>
       <c r="T19">
-        <v>0.008353759204906705</v>
+        <v>0.1948628391524313</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.899416590943263</v>
+        <v>22.345278</v>
       </c>
       <c r="H20">
-        <v>0.899416590943263</v>
+        <v>67.03583399999999</v>
       </c>
       <c r="I20">
-        <v>0.02414398186263335</v>
+        <v>0.5351569449859956</v>
       </c>
       <c r="J20">
-        <v>0.02414398186263335</v>
+        <v>0.5392338221006618</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.698532001616</v>
+        <v>101.1580683333333</v>
       </c>
       <c r="N20">
-        <v>100.698532001616</v>
+        <v>303.474205</v>
       </c>
       <c r="O20">
-        <v>0.4840840044358198</v>
+        <v>0.4729862310452404</v>
       </c>
       <c r="P20">
-        <v>0.4840840044358198</v>
+        <v>0.4784486096194167</v>
       </c>
       <c r="Q20">
-        <v>90.56993036588453</v>
+        <v>2260.40515885133</v>
       </c>
       <c r="R20">
-        <v>90.56993036588453</v>
+        <v>20343.64642966197</v>
       </c>
       <c r="S20">
-        <v>0.01168771542308935</v>
+        <v>0.2531218664266112</v>
       </c>
       <c r="T20">
-        <v>0.01168771542308935</v>
+        <v>0.2579956724438255</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>22.345278</v>
+      </c>
+      <c r="H21">
+        <v>67.03583399999999</v>
+      </c>
+      <c r="I21">
+        <v>0.5351569449859956</v>
+      </c>
+      <c r="J21">
+        <v>0.5392338221006618</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.325205</v>
+      </c>
+      <c r="N21">
+        <v>14.65041</v>
+      </c>
+      <c r="O21">
+        <v>0.03425056608600804</v>
+      </c>
+      <c r="P21">
+        <v>0.02309741051913917</v>
+      </c>
+      <c r="Q21">
+        <v>163.68374213199</v>
+      </c>
+      <c r="R21">
+        <v>982.10245279194</v>
+      </c>
+      <c r="S21">
+        <v>0.01832942831062901</v>
+      </c>
+      <c r="T21">
+        <v>0.01245490495486345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.894115</v>
+      </c>
+      <c r="I22">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J22">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.673966</v>
+      </c>
+      <c r="N22">
+        <v>56.02189799999999</v>
+      </c>
+      <c r="O22">
+        <v>0.08731413067222925</v>
+      </c>
+      <c r="P22">
+        <v>0.08832249583235839</v>
+      </c>
+      <c r="Q22">
+        <v>17.685319555045</v>
+      </c>
+      <c r="R22">
+        <v>106.11191733027</v>
+      </c>
+      <c r="S22">
+        <v>0.001980415358987624</v>
+      </c>
+      <c r="T22">
+        <v>0.001345698548221452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H23">
+        <v>1.894115</v>
+      </c>
+      <c r="I23">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J23">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.309642</v>
+      </c>
+      <c r="N23">
+        <v>30.928926</v>
+      </c>
+      <c r="O23">
+        <v>0.04820494097354054</v>
+      </c>
+      <c r="P23">
+        <v>0.04876164562889892</v>
+      </c>
+      <c r="Q23">
+        <v>9.763823778415</v>
+      </c>
+      <c r="R23">
+        <v>58.58294267049</v>
+      </c>
+      <c r="S23">
+        <v>0.001093360315771373</v>
+      </c>
+      <c r="T23">
+        <v>0.0007429418192194901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H24">
+        <v>1.894115</v>
+      </c>
+      <c r="I24">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J24">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>76.40418233333334</v>
+      </c>
+      <c r="N24">
+        <v>229.212547</v>
+      </c>
+      <c r="O24">
+        <v>0.3572441312229817</v>
+      </c>
+      <c r="P24">
+        <v>0.3613698384001869</v>
+      </c>
+      <c r="Q24">
+        <v>72.35915391015085</v>
+      </c>
+      <c r="R24">
+        <v>434.154923460905</v>
+      </c>
+      <c r="S24">
+        <v>0.008102832370146988</v>
+      </c>
+      <c r="T24">
+        <v>0.005505900420082899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.899416590943263</v>
-      </c>
-      <c r="H21">
-        <v>0.899416590943263</v>
-      </c>
-      <c r="I21">
-        <v>0.02414398186263335</v>
-      </c>
-      <c r="J21">
-        <v>0.02414398186263335</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.02530955306597</v>
-      </c>
-      <c r="N21">
-        <v>7.02530955306597</v>
-      </c>
-      <c r="O21">
-        <v>0.03377248817087838</v>
-      </c>
-      <c r="P21">
-        <v>0.03377248817087838</v>
-      </c>
-      <c r="Q21">
-        <v>6.318679968539733</v>
-      </c>
-      <c r="R21">
-        <v>6.318679968539733</v>
-      </c>
-      <c r="S21">
-        <v>0.0008154023418536868</v>
-      </c>
-      <c r="T21">
-        <v>0.0008154023418536868</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.894115</v>
+      </c>
+      <c r="I25">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J25">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>101.1580683333333</v>
+      </c>
+      <c r="N25">
+        <v>303.474205</v>
+      </c>
+      <c r="O25">
+        <v>0.4729862310452404</v>
+      </c>
+      <c r="P25">
+        <v>0.4784486096194167</v>
+      </c>
+      <c r="Q25">
+        <v>95.80250730059585</v>
+      </c>
+      <c r="R25">
+        <v>574.815043803575</v>
+      </c>
+      <c r="S25">
+        <v>0.01072803668020243</v>
+      </c>
+      <c r="T25">
+        <v>0.007289735115564262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.894115</v>
+      </c>
+      <c r="I26">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J26">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.325205</v>
+      </c>
+      <c r="N26">
+        <v>14.65041</v>
+      </c>
+      <c r="O26">
+        <v>0.03425056608600804</v>
+      </c>
+      <c r="P26">
+        <v>0.02309741051913917</v>
+      </c>
+      <c r="Q26">
+        <v>6.937390334287501</v>
+      </c>
+      <c r="R26">
+        <v>27.74956133715001</v>
+      </c>
+      <c r="S26">
+        <v>0.0007768541770790921</v>
+      </c>
+      <c r="T26">
+        <v>0.0003519165928267736</v>
       </c>
     </row>
   </sheetData>
